--- a/Table1_Terrestrial.xlsx
+++ b/Table1_Terrestrial.xlsx
@@ -12,21 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total_area</t>
   </si>
   <si>
-    <t xml:space="preserve">Proportion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exclusive</t>
   </si>
   <si>
     <t xml:space="preserve">Overlapped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Fond</t>
@@ -404,33 +407,29 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>227.5754</v>
+        <v>16.1092702667103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.527468306374533</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.3536</v>
-      </c>
-      <c r="E2" t="n">
-        <v>218.2218</v>
-      </c>
+        <v>6950.3202</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4537.1035</v>
+        <v>0.527468306374533</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5159797543626</v>
+        <v>227.5754</v>
       </c>
       <c r="D3" t="n">
-        <v>2453.1348</v>
+        <v>9.3536</v>
       </c>
       <c r="E3" t="n">
-        <v>2083.9687</v>
+        <v>218.2218</v>
       </c>
     </row>
     <row r="4">
@@ -438,16 +437,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1091.7837</v>
+        <v>10.5159797543626</v>
       </c>
       <c r="C4" t="n">
-        <v>2.53050768741402</v>
+        <v>4537.1035</v>
       </c>
       <c r="D4" t="n">
-        <v>188.4421</v>
+        <v>2453.1348</v>
       </c>
       <c r="E4" t="n">
-        <v>903.3416</v>
+        <v>2083.9687</v>
       </c>
     </row>
     <row r="5">
@@ -455,16 +454,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3878.6199</v>
+        <v>2.53050768741402</v>
       </c>
       <c r="C5" t="n">
-        <v>8.98976369907978</v>
+        <v>1091.7837</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.3346</v>
+        <v>188.4421</v>
       </c>
       <c r="E5" t="n">
-        <v>2604.2853</v>
+        <v>903.3416</v>
       </c>
     </row>
     <row r="6">
@@ -472,16 +471,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>439.6053</v>
+        <v>8.98976369907978</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01890565968144</v>
+        <v>3878.6199</v>
       </c>
       <c r="D6" t="n">
-        <v>13.608</v>
+        <v>1274.3346</v>
       </c>
       <c r="E6" t="n">
-        <v>425.9973</v>
+        <v>2604.2853</v>
       </c>
     </row>
     <row r="7">
@@ -489,16 +488,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>255.3549</v>
+        <v>1.01890565968144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.591854904473147</v>
+        <v>439.6053</v>
       </c>
       <c r="D7" t="n">
-        <v>59.2282</v>
+        <v>13.608</v>
       </c>
       <c r="E7" t="n">
-        <v>196.1267</v>
+        <v>425.9973</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +505,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>56.735</v>
+        <v>0.591854904473147</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131498898220806</v>
+        <v>255.3549</v>
       </c>
       <c r="D8" t="n">
-        <v>9.3819</v>
+        <v>59.2282</v>
       </c>
       <c r="E8" t="n">
-        <v>47.3531</v>
+        <v>196.1267</v>
       </c>
     </row>
     <row r="9">
@@ -523,15 +522,32 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
+        <v>0.131498898220806</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.735</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.3819</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47.3531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.61717453967317</v>
+      </c>
+      <c r="C10" t="n">
         <v>697.7275</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.61717453967317</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>172.748</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>524.9795</v>
       </c>
     </row>

--- a/Table1_Terrestrial.xlsx
+++ b/Table1_Terrestrial.xlsx
@@ -32,28 +32,28 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Habitats_P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natura_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urort_Skov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaturaOgVildtreservater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturnationalparks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fond</t>
   </si>
   <si>
-    <t xml:space="preserve">Habitats_P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaturaOgVildtreservater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturnationalparks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stoette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urort_Skov</t>
   </si>
 </sst>
 </file>
@@ -420,16 +420,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.527468306374533</v>
+        <v>10.5159797543626</v>
       </c>
       <c r="C3" t="n">
-        <v>227.5754</v>
+        <v>4537.1035</v>
       </c>
       <c r="D3" t="n">
-        <v>9.3536</v>
+        <v>2453.1348</v>
       </c>
       <c r="E3" t="n">
-        <v>218.2218</v>
+        <v>2083.9687</v>
       </c>
     </row>
     <row r="4">
@@ -437,16 +437,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5159797543626</v>
+        <v>8.98976369907978</v>
       </c>
       <c r="C4" t="n">
-        <v>4537.1035</v>
+        <v>3878.6199</v>
       </c>
       <c r="D4" t="n">
-        <v>2453.1348</v>
+        <v>1274.3346</v>
       </c>
       <c r="E4" t="n">
-        <v>2083.9687</v>
+        <v>2604.2853</v>
       </c>
     </row>
     <row r="5">
@@ -471,16 +471,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>8.98976369907978</v>
+        <v>1.61717453967317</v>
       </c>
       <c r="C6" t="n">
-        <v>3878.6199</v>
+        <v>697.7275</v>
       </c>
       <c r="D6" t="n">
-        <v>1274.3346</v>
+        <v>172.748</v>
       </c>
       <c r="E6" t="n">
-        <v>2604.2853</v>
+        <v>524.9795</v>
       </c>
     </row>
     <row r="7">
@@ -522,16 +522,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.131498898220806</v>
+        <v>0.527468306374533</v>
       </c>
       <c r="C9" t="n">
-        <v>56.735</v>
+        <v>227.5754</v>
       </c>
       <c r="D9" t="n">
-        <v>9.3819</v>
+        <v>9.3536</v>
       </c>
       <c r="E9" t="n">
-        <v>47.3531</v>
+        <v>218.2218</v>
       </c>
     </row>
     <row r="10">
@@ -539,16 +539,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>1.61717453967317</v>
+        <v>0.131498898220806</v>
       </c>
       <c r="C10" t="n">
-        <v>697.7275</v>
+        <v>56.735</v>
       </c>
       <c r="D10" t="n">
-        <v>172.748</v>
+        <v>9.3819</v>
       </c>
       <c r="E10" t="n">
-        <v>524.9795</v>
+        <v>47.3531</v>
       </c>
     </row>
   </sheetData>

--- a/Table1_Terrestrial.xlsx
+++ b/Table1_Terrestrial.xlsx
@@ -407,10 +407,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16.1092702667103</v>
+        <v>16.0689871531075</v>
       </c>
       <c r="C2" t="n">
-        <v>6950.3202</v>
+        <v>6932.9399</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -420,16 +420,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5159797543626</v>
+        <v>10.5159786849482</v>
       </c>
       <c r="C3" t="n">
-        <v>4537.1035</v>
+        <v>4537.1029</v>
       </c>
       <c r="D3" t="n">
-        <v>2453.1348</v>
+        <v>2464.7145</v>
       </c>
       <c r="E3" t="n">
-        <v>2083.9687</v>
+        <v>2072.3884</v>
       </c>
     </row>
     <row r="4">
@@ -437,16 +437,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>8.98976369907978</v>
+        <v>8.98977509902045</v>
       </c>
       <c r="C4" t="n">
-        <v>3878.6199</v>
+        <v>3878.6247</v>
       </c>
       <c r="D4" t="n">
-        <v>1274.3346</v>
+        <v>1281.2394</v>
       </c>
       <c r="E4" t="n">
-        <v>2604.2853</v>
+        <v>2597.3853</v>
       </c>
     </row>
     <row r="5">
@@ -454,16 +454,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.53050768741402</v>
+        <v>2.53051008249174</v>
       </c>
       <c r="C5" t="n">
-        <v>1091.7837</v>
+        <v>1091.7847</v>
       </c>
       <c r="D5" t="n">
-        <v>188.4421</v>
+        <v>190.1803</v>
       </c>
       <c r="E5" t="n">
-        <v>903.3416</v>
+        <v>901.6044</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +471,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.61717453967317</v>
+        <v>1.38999334468249</v>
       </c>
       <c r="C6" t="n">
-        <v>697.7275</v>
+        <v>599.7105</v>
       </c>
       <c r="D6" t="n">
-        <v>172.748</v>
+        <v>155.363</v>
       </c>
       <c r="E6" t="n">
-        <v>524.9795</v>
+        <v>444.3475</v>
       </c>
     </row>
     <row r="7">
@@ -488,16 +488,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.01890565968144</v>
+        <v>1.01891287590682</v>
       </c>
       <c r="C7" t="n">
-        <v>439.6053</v>
+        <v>439.6084</v>
       </c>
       <c r="D7" t="n">
-        <v>13.608</v>
+        <v>13.6388</v>
       </c>
       <c r="E7" t="n">
-        <v>425.9973</v>
+        <v>425.9696</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.591854904473147</v>
+        <v>0.591855617885738</v>
       </c>
       <c r="C8" t="n">
-        <v>255.3549</v>
+        <v>255.3552</v>
       </c>
       <c r="D8" t="n">
-        <v>59.2282</v>
+        <v>59.2283</v>
       </c>
       <c r="E8" t="n">
-        <v>196.1267</v>
+        <v>196.1269</v>
       </c>
     </row>
     <row r="9">
@@ -522,16 +522,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.527468306374533</v>
+        <v>0.527467858933245</v>
       </c>
       <c r="C9" t="n">
-        <v>227.5754</v>
+        <v>227.5752</v>
       </c>
       <c r="D9" t="n">
         <v>9.3536</v>
       </c>
       <c r="E9" t="n">
-        <v>218.2218</v>
+        <v>218.2216</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.131498898220806</v>
+        <v>0.131498902237931</v>
       </c>
       <c r="C10" t="n">
         <v>56.735</v>
